--- a/mallar/Protokoll/trahast/trahast-protokoll-lätt klass_individuell.xlsx
+++ b/mallar/Protokoll/trahast/trahast-protokoll-lätt klass_individuell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\trahast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1B3EC9-9E07-434A-B38E-4B78A0289D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A01968-34F5-42E3-8D72-D862AD0DDC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5018" yWindow="1208" windowWidth="16200" windowHeight="9397" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -25,24 +25,25 @@
   </externalReferences>
   <definedNames>
     <definedName name="Antal_tävlingsdagar">[1]Information!$H$5</definedName>
-    <definedName name="armnr">'Grund 0 star'!$L$6</definedName>
+    <definedName name="armnr" localSheetId="1">'Grund 0 star'!$L$6</definedName>
+    <definedName name="armnr" localSheetId="2">'Lätt klass indv kür'!$J$6</definedName>
     <definedName name="bord" localSheetId="1">'Grund 0 star'!$L$2</definedName>
-    <definedName name="bord" localSheetId="2">'Lätt klass indv kür'!#REF!</definedName>
-    <definedName name="datum" localSheetId="1">'Grund 0 star'!$C$5:$F$5</definedName>
-    <definedName name="datum" localSheetId="2">'Lätt klass indv kür'!#REF!</definedName>
+    <definedName name="bord" localSheetId="2">'Lätt klass indv kür'!$J$2</definedName>
+    <definedName name="datum" localSheetId="1">'Grund 0 star'!$C$5</definedName>
+    <definedName name="datum" localSheetId="2">'Lätt klass indv kür'!$C$5</definedName>
     <definedName name="domare" localSheetId="1">'Grund 0 star'!$B$42</definedName>
     <definedName name="domare" localSheetId="2">'Lätt klass indv kür'!$B$41</definedName>
     <definedName name="firstvaulter" localSheetId="1">'Grund 0 star'!#REF!</definedName>
     <definedName name="firstvaulter" localSheetId="2">'Lätt klass indv kür'!#REF!</definedName>
     <definedName name="Hästpoäng" localSheetId="1">'Grund 0 star'!$N$37</definedName>
     <definedName name="Hästpoäng" localSheetId="2">'Lätt klass indv kür'!#REF!</definedName>
-    <definedName name="id" localSheetId="1">'Grund 0 star'!$N$1</definedName>
-    <definedName name="id" localSheetId="2">'Lätt klass indv kür'!#REF!</definedName>
+    <definedName name="id" localSheetId="1">'Grund 0 star'!$N$11</definedName>
+    <definedName name="id" localSheetId="2">'Lätt klass indv kür'!$K$10</definedName>
     <definedName name="klass" localSheetId="1">'Grund 0 star'!$L$3</definedName>
-    <definedName name="klass" localSheetId="2">'Lätt klass indv kür'!#REF!</definedName>
-    <definedName name="moment" localSheetId="1">'Grund 0 star'!$L$4</definedName>
-    <definedName name="moment" localSheetId="2">'Lätt klass indv kür'!#REF!</definedName>
-    <definedName name="result" localSheetId="1">'Grund 0 star'!$N$40</definedName>
+    <definedName name="klass" localSheetId="2">'Lätt klass indv kür'!$J$3</definedName>
+    <definedName name="moment" localSheetId="1">'Grund 0 star'!$A$2</definedName>
+    <definedName name="moment" localSheetId="2">'Lätt klass indv kür'!$A$15</definedName>
+    <definedName name="result" localSheetId="1">'Grund 0 star'!$H$33</definedName>
     <definedName name="result" localSheetId="2">'Lätt klass indv kür'!$K$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="84">
   <si>
     <t>Kommentarer</t>
   </si>
@@ -1057,7 +1058,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1632,6 +1633,28 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="17" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1649,31 +1672,6 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1701,21 +1699,33 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1762,6 +1772,19 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1769,15 +1792,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="9" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -18733,8 +18747,8 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -18747,35 +18761,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="236" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="H1" s="238" t="s">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="H1" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="239"/>
       <c r="L1" s="120"/>
     </row>
     <row r="2" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="H2" s="238" t="s">
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="H2" s="237" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="240"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="239"/>
       <c r="L2" s="120"/>
     </row>
     <row r="3" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18785,12 +18799,12 @@
       <c r="D3" s="122"/>
       <c r="E3" s="122"/>
       <c r="F3" s="122"/>
-      <c r="H3" s="238" t="s">
+      <c r="H3" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="240"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="239"/>
       <c r="L3" s="120"/>
     </row>
     <row r="4" spans="1:12" ht="2.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -18807,14 +18821,14 @@
       <c r="L4" s="213"/>
     </row>
     <row r="5" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="242" t="s">
+      <c r="A5" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="242"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
       <c r="H5" s="121"/>
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
@@ -18822,44 +18836,44 @@
       <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
       <c r="I6" s="119"/>
-      <c r="J6" s="265" t="s">
+      <c r="J6" s="226" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="266"/>
-      <c r="L6" s="267"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="228"/>
     </row>
     <row r="7" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
       <c r="I7" s="119"/>
       <c r="J7" s="119"/>
       <c r="K7" s="119"/>
       <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
       <c r="I8" s="119"/>
       <c r="J8" s="119"/>
       <c r="K8" s="119"/>
@@ -18877,29 +18891,29 @@
       <c r="K9" s="119"/>
       <c r="L9" s="119"/>
     </row>
-    <row r="10" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="244" t="s">
+    <row r="10" spans="1:12" ht="0.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="244"/>
-      <c r="C10" s="244"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
       <c r="I10" s="119"/>
       <c r="J10" s="119"/>
       <c r="K10" s="119"/>
       <c r="L10" s="119"/>
     </row>
-    <row r="11" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="244" t="s">
+    <row r="11" spans="1:12" ht="2.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="244"/>
-      <c r="C11" s="244"/>
-      <c r="D11" s="244"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
       <c r="I11" s="119"/>
       <c r="J11" s="119"/>
       <c r="K11" s="119"/>
@@ -18924,117 +18938,117 @@
       <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="235"/>
+      <c r="A14" s="246"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="250"/>
       <c r="L14" s="215" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="222" t="s">
+      <c r="A15" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="223"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="226"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="227"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="230"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="234"/>
       <c r="L15" s="216"/>
     </row>
     <row r="16" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="222" t="s">
+      <c r="A16" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="223"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="227"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="234"/>
       <c r="L16" s="216"/>
     </row>
     <row r="17" spans="1:14" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="222" t="s">
+      <c r="A17" s="229" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="223"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="226"/>
-      <c r="I17" s="226"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="227"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="234"/>
       <c r="L17" s="216"/>
     </row>
     <row r="18" spans="1:14" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="222" t="s">
+      <c r="A18" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="223"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="227"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="232"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="234"/>
       <c r="L18" s="216"/>
     </row>
     <row r="19" spans="1:14" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="222" t="s">
+      <c r="A19" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="223"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="226"/>
-      <c r="I19" s="226"/>
-      <c r="J19" s="226"/>
-      <c r="K19" s="227"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="234"/>
       <c r="L19" s="216"/>
     </row>
     <row r="20" spans="1:14" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="222" t="s">
+      <c r="A20" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="223"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="226"/>
-      <c r="J20" s="226"/>
-      <c r="K20" s="227"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="234"/>
       <c r="L20" s="216"/>
     </row>
     <row r="21" spans="1:14" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19045,12 +19059,12 @@
       <c r="E21" s="121"/>
       <c r="F21" s="121"/>
       <c r="G21" s="121"/>
-      <c r="H21" s="228" t="s">
+      <c r="H21" s="251" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="228"/>
-      <c r="J21" s="228"/>
-      <c r="K21" s="228"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="251"/>
+      <c r="K21" s="251"/>
       <c r="L21" s="215">
         <f>SUM(L15:L20)</f>
         <v>0</v>
@@ -19064,12 +19078,12 @@
       <c r="E22" s="121"/>
       <c r="F22" s="121"/>
       <c r="G22" s="121"/>
-      <c r="H22" s="228" t="s">
+      <c r="H22" s="251" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="228"/>
-      <c r="J22" s="228"/>
-      <c r="K22" s="228"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="251"/>
+      <c r="K22" s="251"/>
       <c r="L22" s="217">
         <f>IFERROR(L21/6,0)</f>
         <v>0</v>
@@ -19270,13 +19284,13 @@
     </row>
     <row r="41" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="236" t="s">
+      <c r="A42" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="236"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="236"/>
-      <c r="E42" s="236"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="235"/>
+      <c r="E42" s="235"/>
       <c r="G42" s="1" t="s">
         <v>8</v>
       </c>
@@ -19303,6 +19317,24 @@
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:K16"/>
     <mergeCell ref="A42:E42"/>
@@ -19319,24 +19351,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:K19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19355,8 +19369,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -19372,35 +19386,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="236" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="H1" s="238" t="s">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="H1" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="225"/>
       <c r="L1" s="120"/>
     </row>
     <row r="2" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="H2" s="238" t="s">
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="H2" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="240"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="225"/>
       <c r="L2" s="120"/>
     </row>
     <row r="3" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -19410,12 +19424,12 @@
       <c r="D3" s="122"/>
       <c r="E3" s="122"/>
       <c r="F3" s="122"/>
-      <c r="H3" s="238" t="s">
+      <c r="H3" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="240"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="225"/>
       <c r="L3" s="120"/>
     </row>
     <row r="4" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
@@ -19431,96 +19445,97 @@
       <c r="K4" s="212"/>
       <c r="L4" s="130"/>
     </row>
-    <row r="5" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="242" t="s">
+    <row r="5" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="242"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
       <c r="H5" s="121"/>
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="121"/>
       <c r="L5" s="121"/>
     </row>
-    <row r="6" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="231" t="s">
+    <row r="6" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="I6" s="226" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="227"/>
+      <c r="L6" s="228"/>
     </row>
     <row r="7" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
       <c r="I7" s="119"/>
       <c r="J7" s="119"/>
       <c r="K7" s="119"/>
       <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
       <c r="I8" s="119"/>
       <c r="J8" s="119"/>
       <c r="K8" s="119"/>
       <c r="L8" s="119"/>
     </row>
-    <row r="9" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244" t="s">
+    <row r="9" spans="1:12" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
       <c r="I9" s="119"/>
       <c r="J9" s="119"/>
       <c r="K9" s="119"/>
       <c r="L9" s="119"/>
     </row>
-    <row r="10" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="244" t="s">
+    <row r="10" spans="1:12" ht="1.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="244"/>
-      <c r="C10" s="244"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
       <c r="I10" s="119"/>
       <c r="J10" s="119"/>
       <c r="K10" s="119"/>
       <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="247"/>
-      <c r="J11" s="247"/>
-      <c r="K11" s="247"/>
-      <c r="L11" s="247"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="266"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
     </row>
     <row r="12" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I12" s="118"/>
@@ -19535,25 +19550,25 @@
       <c r="L13" s="118"/>
     </row>
     <row r="14" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="248"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="248"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="267"/>
     </row>
     <row r="15" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="245" t="s">
+      <c r="B15" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="245"/>
-      <c r="D15" s="245"/>
-      <c r="E15" s="245"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="264"/>
+      <c r="F15" s="264"/>
+      <c r="G15" s="264"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="266"/>
+      <c r="K15" s="266"/>
     </row>
     <row r="16" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
@@ -19574,9 +19589,9 @@
       <c r="G16" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="247"/>
-      <c r="J16" s="247"/>
-      <c r="K16" s="247"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="266"/>
     </row>
     <row r="17" spans="1:11" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
@@ -19596,10 +19611,10 @@
       <c r="K17" s="118"/>
     </row>
     <row r="18" spans="1:11" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="246" t="s">
+      <c r="D18" s="265" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="246"/>
+      <c r="E18" s="265"/>
       <c r="F18" s="3" t="s">
         <v>81</v>
       </c>
@@ -19621,82 +19636,82 @@
     </row>
     <row r="20" spans="1:11" ht="12.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="252" t="s">
+      <c r="A21" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="253"/>
-      <c r="K21" s="254"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="256"/>
+      <c r="K21" s="257"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="255"/>
-      <c r="B22" s="256"/>
-      <c r="C22" s="256"/>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
-      <c r="J22" s="256"/>
-      <c r="K22" s="257"/>
+      <c r="A22" s="258"/>
+      <c r="B22" s="259"/>
+      <c r="C22" s="259"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="259"/>
+      <c r="H22" s="259"/>
+      <c r="I22" s="259"/>
+      <c r="J22" s="259"/>
+      <c r="K22" s="260"/>
     </row>
     <row r="23" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="255"/>
-      <c r="B23" s="256"/>
-      <c r="C23" s="256"/>
-      <c r="D23" s="256"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="257"/>
+      <c r="A23" s="258"/>
+      <c r="B23" s="259"/>
+      <c r="C23" s="259"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="259"/>
+      <c r="G23" s="259"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="259"/>
+      <c r="J23" s="259"/>
+      <c r="K23" s="260"/>
     </row>
     <row r="24" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="255"/>
-      <c r="B24" s="256"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="256"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="256"/>
-      <c r="K24" s="257"/>
+      <c r="A24" s="258"/>
+      <c r="B24" s="259"/>
+      <c r="C24" s="259"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="259"/>
+      <c r="G24" s="259"/>
+      <c r="H24" s="259"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="259"/>
+      <c r="K24" s="260"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="258"/>
-      <c r="B25" s="259"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="259"/>
-      <c r="F25" s="259"/>
-      <c r="G25" s="259"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="259"/>
-      <c r="K25" s="260"/>
+      <c r="A25" s="261"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="262"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="262"/>
+      <c r="H25" s="262"/>
+      <c r="I25" s="262"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="263"/>
     </row>
     <row r="26" spans="1:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="249" t="s">
+      <c r="E27" s="252" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="251"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="253"/>
+      <c r="J27" s="254"/>
       <c r="K27" s="19">
         <f>IFERROR(G18,"")</f>
         <v>0</v>
@@ -19811,13 +19826,13 @@
       <c r="K39" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="236" t="s">
+      <c r="A41" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="236"/>
-      <c r="C41" s="236"/>
-      <c r="D41" s="236"/>
-      <c r="E41" s="236"/>
+      <c r="B41" s="222"/>
+      <c r="C41" s="222"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="222"/>
       <c r="G41" s="1" t="s">
         <v>8</v>
       </c>
@@ -19835,23 +19850,11 @@
       <c r="K42" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
+  <mergeCells count="22">
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A41:E41"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="A21:K25"/>
     <mergeCell ref="A10:B10"/>
@@ -19862,6 +19865,14 @@
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="K20:K27">
     <cfRule type="cellIs" dxfId="384" priority="3" operator="equal">
@@ -19913,24 +19924,24 @@
       <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
       <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
       <c r="D2" s="98"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
       <c r="D3" s="98"/>
     </row>
     <row r="4" spans="1:15" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -23765,24 +23776,24 @@
       <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
       <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
       <c r="D2" s="98"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
       <c r="D3" s="98"/>
     </row>
     <row r="4" spans="1:15" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -27439,24 +27450,24 @@
       <c r="A1" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="136"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
       <c r="D3" s="136"/>
     </row>
     <row r="4" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">

--- a/mallar/Protokoll/trahast/trahast-protokoll-lätt klass_individuell.xlsx
+++ b/mallar/Protokoll/trahast/trahast-protokoll-lätt klass_individuell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\trahast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A01968-34F5-42E3-8D72-D862AD0DDC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422CAD9A-44BE-4161-991E-43D47D96C1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5018" yWindow="1208" windowWidth="16200" windowHeight="9397" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -1673,6 +1673,34 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1698,34 +1726,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1806,7 +1806,245 @@
     <cellStyle name="Tusental" xfId="1" builtinId="3"/>
     <cellStyle name="Tusental 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="386">
+  <dxfs count="136">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2041,1420 +2279,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFE2EBD5"/>
         </patternFill>
       </fill>
@@ -3518,6 +2342,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE2EBD5"/>
         </patternFill>
       </fill>
@@ -3525,14 +2356,49 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EBD5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3567,28 +2433,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3623,532 +2468,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4225,42 +2545,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4295,42 +2580,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4365,42 +2615,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4435,28 +2650,63 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4490,22 +2740,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -18012,9 +16262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -18052,9 +16302,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18087,26 +16337,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18139,26 +16372,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18731,7 +16947,7 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>COUNTBLANK($G9)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="385" priority="2">
+    <cfRule type="containsBlanks" dxfId="135" priority="2">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18761,35 +16977,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="H1" s="237" t="s">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="H1" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="239"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="248"/>
       <c r="L1" s="120"/>
     </row>
     <row r="2" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="249" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="H2" s="237" t="s">
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="H2" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="239"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="248"/>
       <c r="L2" s="120"/>
     </row>
     <row r="3" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18799,12 +17015,12 @@
       <c r="D3" s="122"/>
       <c r="E3" s="122"/>
       <c r="F3" s="122"/>
-      <c r="H3" s="237" t="s">
+      <c r="H3" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="239"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="248"/>
       <c r="L3" s="120"/>
     </row>
     <row r="4" spans="1:12" ht="2.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -18821,14 +17037,14 @@
       <c r="L4" s="213"/>
     </row>
     <row r="5" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="241" t="s">
+      <c r="A5" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
+      <c r="B5" s="250"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
       <c r="H5" s="121"/>
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
@@ -18836,14 +17052,14 @@
       <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="243"/>
-      <c r="C6" s="244"/>
-      <c r="D6" s="244"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="I6" s="119"/>
       <c r="J6" s="226" t="s">
         <v>83</v>
@@ -18852,28 +17068,28 @@
       <c r="L6" s="228"/>
     </row>
     <row r="7" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
       <c r="I7" s="119"/>
       <c r="J7" s="119"/>
       <c r="K7" s="119"/>
       <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
       <c r="I8" s="119"/>
       <c r="J8" s="119"/>
       <c r="K8" s="119"/>
@@ -18892,28 +17108,28 @@
       <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" ht="0.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="245" t="s">
+      <c r="A10" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="245"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="I10" s="119"/>
       <c r="J10" s="119"/>
       <c r="K10" s="119"/>
       <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" ht="2.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
       <c r="I11" s="119"/>
       <c r="J11" s="119"/>
       <c r="K11" s="119"/>
@@ -18938,19 +17154,19 @@
       <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="246"/>
-      <c r="B14" s="243"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="247"/>
-      <c r="E14" s="248" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="249"/>
-      <c r="J14" s="249"/>
-      <c r="K14" s="250"/>
+      <c r="A14" s="237"/>
+      <c r="B14" s="238"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="240" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="242"/>
       <c r="L14" s="215" t="s">
         <v>17</v>
       </c>
@@ -19059,12 +17275,12 @@
       <c r="E21" s="121"/>
       <c r="F21" s="121"/>
       <c r="G21" s="121"/>
-      <c r="H21" s="251" t="s">
+      <c r="H21" s="235" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="251"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="251"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
+      <c r="K21" s="235"/>
       <c r="L21" s="215">
         <f>SUM(L15:L20)</f>
         <v>0</v>
@@ -19078,12 +17294,12 @@
       <c r="E22" s="121"/>
       <c r="F22" s="121"/>
       <c r="G22" s="121"/>
-      <c r="H22" s="251" t="s">
+      <c r="H22" s="235" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="251"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="251"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="235"/>
       <c r="L22" s="217">
         <f>IFERROR(L21/6,0)</f>
         <v>0</v>
@@ -19284,13 +17500,13 @@
     </row>
     <row r="41" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="235" t="s">
+      <c r="A42" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="235"/>
-      <c r="C42" s="235"/>
-      <c r="D42" s="235"/>
-      <c r="E42" s="235"/>
+      <c r="B42" s="244"/>
+      <c r="C42" s="244"/>
+      <c r="D42" s="244"/>
+      <c r="E42" s="244"/>
       <c r="G42" s="1" t="s">
         <v>8</v>
       </c>
@@ -19317,24 +17533,6 @@
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:K16"/>
     <mergeCell ref="A42:E42"/>
@@ -19351,6 +17549,24 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:K19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19369,8 +17585,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -19386,13 +17602,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
       <c r="H1" s="223" t="s">
         <v>19</v>
       </c>
@@ -19402,13 +17618,13 @@
       <c r="L1" s="120"/>
     </row>
     <row r="2" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
       <c r="H2" s="223" t="s">
         <v>18</v>
       </c>
@@ -19446,14 +17662,14 @@
       <c r="L4" s="130"/>
     </row>
     <row r="5" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="241" t="s">
+      <c r="A5" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
+      <c r="B5" s="250"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
       <c r="H5" s="121"/>
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
@@ -19461,14 +17677,14 @@
       <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="243"/>
-      <c r="C6" s="244"/>
-      <c r="D6" s="244"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="I6" s="226" t="s">
         <v>83</v>
       </c>
@@ -19476,56 +17692,56 @@
       <c r="L6" s="228"/>
     </row>
     <row r="7" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
       <c r="I7" s="119"/>
       <c r="J7" s="119"/>
       <c r="K7" s="119"/>
       <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
       <c r="I8" s="119"/>
       <c r="J8" s="119"/>
       <c r="K8" s="119"/>
       <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="I9" s="119"/>
       <c r="J9" s="119"/>
       <c r="K9" s="119"/>
       <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" ht="1.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="245" t="s">
+      <c r="A10" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="245"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="I10" s="119"/>
       <c r="J10" s="119"/>
       <c r="K10" s="119"/>
@@ -19851,6 +18067,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A9:B9"/>
@@ -19865,24 +18089,14 @@
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="K20:K27">
-    <cfRule type="cellIs" dxfId="384" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:K27">
-    <cfRule type="cellIs" dxfId="383" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="134" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22502,1228 +20716,440 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="expression" priority="322" stopIfTrue="1">
-      <formula>COUNTBLANK($G12)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="382" priority="325">
-      <formula>LEN(TRIM(H12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:J13">
-    <cfRule type="expression" priority="321" stopIfTrue="1">
-      <formula>COUNTBLANK($G13)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="381" priority="326">
-      <formula>LEN(TRIM(H13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:J14">
-    <cfRule type="expression" priority="320" stopIfTrue="1">
-      <formula>COUNTBLANK($G14)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="380" priority="327">
-      <formula>LEN(TRIM(H14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" priority="323" stopIfTrue="1">
       <formula>COUNTBLANK($G11)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="379" priority="324">
+    <cfRule type="containsBlanks" dxfId="132" priority="324">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="378" priority="316">
-      <formula>COUNTBLANK(F11:F11)=0</formula>
+  <conditionalFormatting sqref="H15:H16">
+    <cfRule type="containsBlanks" dxfId="131" priority="309">
+      <formula>LEN(TRIM(H15))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="307" stopIfTrue="1">
+      <formula>COUNTBLANK($G15)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="377" priority="315">
-      <formula>COUNTBLANK(F12:F12)=0</formula>
+  <conditionalFormatting sqref="H19:H20">
+    <cfRule type="containsBlanks" dxfId="130" priority="294">
+      <formula>LEN(TRIM(H19))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="292" stopIfTrue="1">
+      <formula>COUNTBLANK($G19)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="376" priority="314">
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="containsBlanks" dxfId="129" priority="279">
+      <formula>LEN(TRIM(H23))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="277" stopIfTrue="1">
+      <formula>COUNTBLANK($G23)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H28">
+    <cfRule type="expression" priority="262" stopIfTrue="1">
+      <formula>COUNTBLANK($G27)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="128" priority="264">
+      <formula>LEN(TRIM(H27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="expression" priority="247" stopIfTrue="1">
+      <formula>COUNTBLANK($G31)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="127" priority="249">
+      <formula>LEN(TRIM(H31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H36">
+    <cfRule type="expression" priority="232" stopIfTrue="1">
+      <formula>COUNTBLANK($G35)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="126" priority="234">
+      <formula>LEN(TRIM(H35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H40">
+    <cfRule type="expression" priority="217" stopIfTrue="1">
+      <formula>COUNTBLANK($G39)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="125" priority="219">
+      <formula>LEN(TRIM(H39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H44">
+    <cfRule type="containsBlanks" dxfId="124" priority="204">
+      <formula>LEN(TRIM(H43))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="202" stopIfTrue="1">
+      <formula>COUNTBLANK($G43)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H48">
+    <cfRule type="expression" priority="187" stopIfTrue="1">
+      <formula>COUNTBLANK($G47)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="123" priority="189">
+      <formula>LEN(TRIM(H47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H52">
+    <cfRule type="containsBlanks" dxfId="122" priority="174">
+      <formula>LEN(TRIM(H51))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="172" stopIfTrue="1">
+      <formula>COUNTBLANK($G51)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H56">
+    <cfRule type="expression" priority="157" stopIfTrue="1">
+      <formula>COUNTBLANK($G55)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="121" priority="159">
+      <formula>LEN(TRIM(H55))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:H60">
+    <cfRule type="containsBlanks" dxfId="120" priority="144">
+      <formula>LEN(TRIM(H59))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="142" stopIfTrue="1">
+      <formula>COUNTBLANK($G59)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63:H64">
+    <cfRule type="containsBlanks" dxfId="119" priority="129">
+      <formula>LEN(TRIM(H63))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="127" stopIfTrue="1">
+      <formula>COUNTBLANK($G63)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:H68">
+    <cfRule type="expression" priority="112" stopIfTrue="1">
+      <formula>COUNTBLANK($G67)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="118" priority="114">
+      <formula>LEN(TRIM(H67))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H72">
+    <cfRule type="containsBlanks" dxfId="117" priority="99">
+      <formula>LEN(TRIM(H71))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="97" stopIfTrue="1">
+      <formula>COUNTBLANK($G71)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:J18">
+    <cfRule type="expression" priority="305" stopIfTrue="1">
+      <formula>COUNTBLANK($G17)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="116" priority="311">
+      <formula>LEN(TRIM(H17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:J22">
+    <cfRule type="expression" priority="290" stopIfTrue="1">
+      <formula>COUNTBLANK($G21)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="115" priority="296">
+      <formula>LEN(TRIM(H21))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:J26">
+    <cfRule type="expression" priority="275" stopIfTrue="1">
+      <formula>COUNTBLANK($G25)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="114" priority="281">
+      <formula>LEN(TRIM(H25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:J30">
+    <cfRule type="containsBlanks" dxfId="113" priority="266">
+      <formula>LEN(TRIM(H29))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="260" stopIfTrue="1">
+      <formula>COUNTBLANK($G29)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:K14">
+    <cfRule type="containsBlanks" dxfId="112" priority="80">
+      <formula>LEN(TRIM(H13))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="78" stopIfTrue="1">
+      <formula>COUNTBLANK($G13)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:K34">
+    <cfRule type="containsBlanks" dxfId="111" priority="65">
+      <formula>LEN(TRIM(H33))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="63" stopIfTrue="1">
+      <formula>COUNTBLANK($G33)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:K38">
+    <cfRule type="expression" priority="57" stopIfTrue="1">
+      <formula>COUNTBLANK($G37)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="110" priority="59">
+      <formula>LEN(TRIM(H37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:K42">
+    <cfRule type="expression" priority="51" stopIfTrue="1">
+      <formula>COUNTBLANK($G41)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="109" priority="53">
+      <formula>LEN(TRIM(H41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:K46">
+    <cfRule type="containsBlanks" dxfId="108" priority="47">
+      <formula>LEN(TRIM(H45))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="45" stopIfTrue="1">
+      <formula>COUNTBLANK($G45)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:K50">
+    <cfRule type="expression" priority="39" stopIfTrue="1">
+      <formula>COUNTBLANK($G49)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="107" priority="41">
+      <formula>LEN(TRIM(H49))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:K54">
+    <cfRule type="expression" priority="33" stopIfTrue="1">
+      <formula>COUNTBLANK($G53)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="106" priority="35">
+      <formula>LEN(TRIM(H53))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:K58">
+    <cfRule type="containsBlanks" dxfId="105" priority="29">
+      <formula>LEN(TRIM(H57))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" stopIfTrue="1">
+      <formula>COUNTBLANK($G57)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:K62">
+    <cfRule type="expression" priority="21" stopIfTrue="1">
+      <formula>COUNTBLANK($G61)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="104" priority="23">
+      <formula>LEN(TRIM(H61))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:K66">
+    <cfRule type="expression" priority="15" stopIfTrue="1">
+      <formula>COUNTBLANK($G65)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="103" priority="17">
+      <formula>LEN(TRIM(H65))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:K70">
+    <cfRule type="expression" priority="9" stopIfTrue="1">
+      <formula>COUNTBLANK($G69)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="102" priority="11">
+      <formula>LEN(TRIM(H69))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:K74">
+    <cfRule type="expression" priority="3" stopIfTrue="1">
+      <formula>COUNTBLANK($G73)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="101" priority="5">
+      <formula>LEN(TRIM(H73))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J12">
+    <cfRule type="expression" dxfId="100" priority="313">
       <formula>COUNTBLANK(E11:E11)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="375" priority="313">
-      <formula>COUNTBLANK(E12:E12)=0</formula>
+  <conditionalFormatting sqref="I15:J16">
+    <cfRule type="expression" dxfId="99" priority="298">
+      <formula>COUNTBLANK(E15:E15)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" priority="307" stopIfTrue="1">
-      <formula>COUNTBLANK($G16)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="374" priority="310">
-      <formula>LEN(TRIM(H16))=0</formula>
+  <conditionalFormatting sqref="I19:J20">
+    <cfRule type="expression" dxfId="98" priority="283">
+      <formula>COUNTBLANK(E19:E19)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:J17">
-    <cfRule type="expression" priority="306" stopIfTrue="1">
-      <formula>COUNTBLANK($G17)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="373" priority="311">
-      <formula>LEN(TRIM(H17))=0</formula>
+  <conditionalFormatting sqref="I23:J24">
+    <cfRule type="expression" dxfId="97" priority="268">
+      <formula>COUNTBLANK(E23:E23)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:J18">
-    <cfRule type="expression" priority="305" stopIfTrue="1">
-      <formula>COUNTBLANK($G18)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="372" priority="312">
-      <formula>LEN(TRIM(H18))=0</formula>
+  <conditionalFormatting sqref="I27:J28">
+    <cfRule type="expression" dxfId="96" priority="253">
+      <formula>COUNTBLANK(E27:E27)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" priority="308" stopIfTrue="1">
-      <formula>COUNTBLANK($G15)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="371" priority="309">
-      <formula>LEN(TRIM(H15))=0</formula>
+  <conditionalFormatting sqref="I31:J32">
+    <cfRule type="expression" dxfId="95" priority="238">
+      <formula>COUNTBLANK(E31:E31)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="370" priority="303">
+  <conditionalFormatting sqref="I35:J36">
+    <cfRule type="expression" dxfId="94" priority="223">
+      <formula>COUNTBLANK(E35:E35)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:J40">
+    <cfRule type="expression" dxfId="93" priority="208">
+      <formula>COUNTBLANK(E39:E39)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:J44">
+    <cfRule type="expression" dxfId="92" priority="193">
+      <formula>COUNTBLANK(E43:E43)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:J48">
+    <cfRule type="expression" dxfId="91" priority="178">
+      <formula>COUNTBLANK(E47:E47)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:J52">
+    <cfRule type="expression" dxfId="90" priority="163">
+      <formula>COUNTBLANK(E51:E51)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:J56">
+    <cfRule type="expression" dxfId="89" priority="148">
+      <formula>COUNTBLANK(E55:E55)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:J60">
+    <cfRule type="expression" dxfId="88" priority="133">
+      <formula>COUNTBLANK(E59:E59)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:J64">
+    <cfRule type="expression" dxfId="87" priority="118">
+      <formula>COUNTBLANK(E63:E63)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67:J68">
+    <cfRule type="expression" dxfId="86" priority="103">
+      <formula>COUNTBLANK(E67:E67)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71:J72">
+    <cfRule type="expression" dxfId="85" priority="88">
+      <formula>COUNTBLANK(E71:E71)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K12">
+    <cfRule type="expression" dxfId="84" priority="75">
+      <formula>COUNTBLANK(G11:G11)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K16">
+    <cfRule type="expression" dxfId="83" priority="73">
+      <formula>COUNTBLANK(G15:G15)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K18">
+    <cfRule type="expression" dxfId="82" priority="302">
       <formula>COUNTBLANK(G17:G17)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="369" priority="302">
-      <formula>COUNTBLANK(G18:G18)=0</formula>
+  <conditionalFormatting sqref="K19:K20">
+    <cfRule type="expression" dxfId="81" priority="71">
+      <formula>COUNTBLANK(G19:G19)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="368" priority="301">
-      <formula>COUNTBLANK(F15:F15)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="367" priority="300">
-      <formula>COUNTBLANK(F16:F16)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="366" priority="299">
-      <formula>COUNTBLANK(E15:E15)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="365" priority="298">
-      <formula>COUNTBLANK(E16:E16)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" priority="292" stopIfTrue="1">
-      <formula>COUNTBLANK($G20)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="364" priority="295">
-      <formula>LEN(TRIM(H20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" priority="291" stopIfTrue="1">
-      <formula>COUNTBLANK($G21)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="363" priority="296">
-      <formula>LEN(TRIM(H21))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:J22">
-    <cfRule type="expression" priority="290" stopIfTrue="1">
-      <formula>COUNTBLANK($G22)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="362" priority="297">
-      <formula>LEN(TRIM(H22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" priority="293" stopIfTrue="1">
-      <formula>COUNTBLANK($G19)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="361" priority="294">
-      <formula>LEN(TRIM(H19))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="360" priority="288">
+  <conditionalFormatting sqref="K21:K22">
+    <cfRule type="expression" dxfId="80" priority="287">
       <formula>COUNTBLANK(G21:G21)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="359" priority="287">
-      <formula>COUNTBLANK(G22:G22)=0</formula>
+  <conditionalFormatting sqref="K23:K24">
+    <cfRule type="expression" dxfId="79" priority="69">
+      <formula>COUNTBLANK(G23:G23)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="358" priority="286">
-      <formula>COUNTBLANK(F19:F19)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="357" priority="285">
-      <formula>COUNTBLANK(F20:F20)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="356" priority="284">
-      <formula>COUNTBLANK(E19:E19)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="355" priority="283">
-      <formula>COUNTBLANK(E20:E20)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" priority="277" stopIfTrue="1">
-      <formula>COUNTBLANK($G24)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="354" priority="280">
-      <formula>LEN(TRIM(H24))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:J25">
-    <cfRule type="expression" priority="276" stopIfTrue="1">
-      <formula>COUNTBLANK($G25)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="353" priority="281">
-      <formula>LEN(TRIM(H25))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:J26">
-    <cfRule type="expression" priority="275" stopIfTrue="1">
-      <formula>COUNTBLANK($G26)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="352" priority="282">
-      <formula>LEN(TRIM(H26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" priority="278" stopIfTrue="1">
-      <formula>COUNTBLANK($G23)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="351" priority="279">
-      <formula>LEN(TRIM(H23))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="350" priority="273">
+  <conditionalFormatting sqref="K25:K26">
+    <cfRule type="expression" dxfId="78" priority="272">
       <formula>COUNTBLANK(G25:G25)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="349" priority="272">
-      <formula>COUNTBLANK(G26:G26)=0</formula>
+  <conditionalFormatting sqref="K27:K28">
+    <cfRule type="expression" dxfId="77" priority="67">
+      <formula>COUNTBLANK(G27:G27)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="348" priority="271">
-      <formula>COUNTBLANK(F23:F23)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="347" priority="270">
-      <formula>COUNTBLANK(F24:F24)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="346" priority="269">
-      <formula>COUNTBLANK(E23:E23)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="345" priority="268">
-      <formula>COUNTBLANK(E24:E24)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="expression" priority="262" stopIfTrue="1">
-      <formula>COUNTBLANK($G28)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="344" priority="265">
-      <formula>LEN(TRIM(H28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:J29">
-    <cfRule type="expression" priority="261" stopIfTrue="1">
-      <formula>COUNTBLANK($G29)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="343" priority="266">
-      <formula>LEN(TRIM(H29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:J30">
-    <cfRule type="expression" priority="260" stopIfTrue="1">
-      <formula>COUNTBLANK($G30)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="342" priority="267">
-      <formula>LEN(TRIM(H30))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="expression" priority="263" stopIfTrue="1">
-      <formula>COUNTBLANK($G27)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="341" priority="264">
-      <formula>LEN(TRIM(H27))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="340" priority="258">
+  <conditionalFormatting sqref="K29:K30">
+    <cfRule type="expression" dxfId="76" priority="257">
       <formula>COUNTBLANK(G29:G29)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="339" priority="257">
-      <formula>COUNTBLANK(G30:G30)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="338" priority="256">
-      <formula>COUNTBLANK(F27:F27)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="337" priority="255">
-      <formula>COUNTBLANK(F28:F28)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="336" priority="254">
-      <formula>COUNTBLANK(E27:E27)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="335" priority="253">
-      <formula>COUNTBLANK(E28:E28)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" priority="247" stopIfTrue="1">
-      <formula>COUNTBLANK($G32)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="334" priority="250">
-      <formula>LEN(TRIM(H32))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:J33">
-    <cfRule type="expression" priority="246" stopIfTrue="1">
-      <formula>COUNTBLANK($G33)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="333" priority="251">
-      <formula>LEN(TRIM(H33))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:J34">
-    <cfRule type="expression" priority="245" stopIfTrue="1">
-      <formula>COUNTBLANK($G34)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="332" priority="252">
-      <formula>LEN(TRIM(H34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" priority="248" stopIfTrue="1">
-      <formula>COUNTBLANK($G31)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="331" priority="249">
-      <formula>LEN(TRIM(H31))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="330" priority="241">
-      <formula>COUNTBLANK(F31:F31)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="329" priority="240">
-      <formula>COUNTBLANK(F32:F32)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="328" priority="239">
-      <formula>COUNTBLANK(E31:E31)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="327" priority="238">
-      <formula>COUNTBLANK(E32:E32)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="expression" priority="232" stopIfTrue="1">
-      <formula>COUNTBLANK($G36)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="326" priority="235">
-      <formula>LEN(TRIM(H36))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37">
-    <cfRule type="expression" priority="231" stopIfTrue="1">
-      <formula>COUNTBLANK($G37)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="325" priority="236">
-      <formula>LEN(TRIM(H37))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:J38">
-    <cfRule type="expression" priority="230" stopIfTrue="1">
-      <formula>COUNTBLANK($G38)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="324" priority="237">
-      <formula>LEN(TRIM(H38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" priority="233" stopIfTrue="1">
-      <formula>COUNTBLANK($G35)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="323" priority="234">
-      <formula>LEN(TRIM(H35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="322" priority="226">
-      <formula>COUNTBLANK(F35:F35)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="321" priority="225">
-      <formula>COUNTBLANK(F36:F36)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="320" priority="224">
-      <formula>COUNTBLANK(E35:E35)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="319" priority="223">
-      <formula>COUNTBLANK(E36:E36)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="expression" priority="217" stopIfTrue="1">
-      <formula>COUNTBLANK($G40)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="318" priority="220">
-      <formula>LEN(TRIM(H40))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:J41">
-    <cfRule type="expression" priority="216" stopIfTrue="1">
-      <formula>COUNTBLANK($G41)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="317" priority="221">
-      <formula>LEN(TRIM(H41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:J42">
-    <cfRule type="expression" priority="215" stopIfTrue="1">
-      <formula>COUNTBLANK($G42)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="316" priority="222">
-      <formula>LEN(TRIM(H42))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="expression" priority="218" stopIfTrue="1">
-      <formula>COUNTBLANK($G39)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="315" priority="219">
-      <formula>LEN(TRIM(H39))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="314" priority="211">
-      <formula>COUNTBLANK(F39:F39)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="313" priority="210">
-      <formula>COUNTBLANK(F40:F40)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="312" priority="209">
-      <formula>COUNTBLANK(E39:E39)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="311" priority="208">
-      <formula>COUNTBLANK(E40:E40)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" priority="202" stopIfTrue="1">
-      <formula>COUNTBLANK($G44)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="310" priority="205">
-      <formula>LEN(TRIM(H44))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:J45">
-    <cfRule type="expression" priority="201" stopIfTrue="1">
-      <formula>COUNTBLANK($G45)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="309" priority="206">
-      <formula>LEN(TRIM(H45))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:J46">
-    <cfRule type="expression" priority="200" stopIfTrue="1">
-      <formula>COUNTBLANK($G46)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="308" priority="207">
-      <formula>LEN(TRIM(H46))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" priority="203" stopIfTrue="1">
-      <formula>COUNTBLANK($G43)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="307" priority="204">
-      <formula>LEN(TRIM(H43))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="expression" dxfId="306" priority="196">
-      <formula>COUNTBLANK(F43:F43)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="expression" dxfId="305" priority="195">
-      <formula>COUNTBLANK(F44:F44)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="304" priority="194">
-      <formula>COUNTBLANK(E43:E43)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="303" priority="193">
-      <formula>COUNTBLANK(E44:E44)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" priority="187" stopIfTrue="1">
-      <formula>COUNTBLANK($G48)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="302" priority="190">
-      <formula>LEN(TRIM(H48))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:J49">
-    <cfRule type="expression" priority="186" stopIfTrue="1">
-      <formula>COUNTBLANK($G49)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="301" priority="191">
-      <formula>LEN(TRIM(H49))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:J50">
-    <cfRule type="expression" priority="185" stopIfTrue="1">
-      <formula>COUNTBLANK($G50)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="300" priority="192">
-      <formula>LEN(TRIM(H50))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" priority="188" stopIfTrue="1">
-      <formula>COUNTBLANK($G47)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="299" priority="189">
-      <formula>LEN(TRIM(H47))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="298" priority="181">
-      <formula>COUNTBLANK(F47:F47)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="expression" dxfId="297" priority="180">
-      <formula>COUNTBLANK(F48:F48)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="296" priority="179">
-      <formula>COUNTBLANK(E47:E47)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="295" priority="178">
-      <formula>COUNTBLANK(E48:E48)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" priority="172" stopIfTrue="1">
-      <formula>COUNTBLANK($G52)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="294" priority="175">
-      <formula>LEN(TRIM(H52))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:J53">
-    <cfRule type="expression" priority="171" stopIfTrue="1">
-      <formula>COUNTBLANK($G53)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="293" priority="176">
-      <formula>LEN(TRIM(H53))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:J54">
-    <cfRule type="expression" priority="170" stopIfTrue="1">
-      <formula>COUNTBLANK($G54)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="292" priority="177">
-      <formula>LEN(TRIM(H54))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" priority="173" stopIfTrue="1">
-      <formula>COUNTBLANK($G51)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="291" priority="174">
-      <formula>LEN(TRIM(H51))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="expression" dxfId="290" priority="166">
-      <formula>COUNTBLANK(F51:F51)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="289" priority="165">
-      <formula>COUNTBLANK(F52:F52)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="288" priority="164">
-      <formula>COUNTBLANK(E51:E51)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="287" priority="163">
-      <formula>COUNTBLANK(E52:E52)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="expression" priority="157" stopIfTrue="1">
-      <formula>COUNTBLANK($G56)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="286" priority="160">
-      <formula>LEN(TRIM(H56))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:J57">
-    <cfRule type="expression" priority="156" stopIfTrue="1">
-      <formula>COUNTBLANK($G57)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="285" priority="161">
-      <formula>LEN(TRIM(H57))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:J58">
-    <cfRule type="expression" priority="155" stopIfTrue="1">
-      <formula>COUNTBLANK($G58)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="284" priority="162">
-      <formula>LEN(TRIM(H58))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" priority="158" stopIfTrue="1">
-      <formula>COUNTBLANK($G55)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="283" priority="159">
-      <formula>LEN(TRIM(H55))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="expression" dxfId="282" priority="151">
-      <formula>COUNTBLANK(F55:F55)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="281" priority="150">
-      <formula>COUNTBLANK(F56:F56)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="280" priority="149">
-      <formula>COUNTBLANK(E55:E55)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="279" priority="148">
-      <formula>COUNTBLANK(E56:E56)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" priority="142" stopIfTrue="1">
-      <formula>COUNTBLANK($G60)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="278" priority="145">
-      <formula>LEN(TRIM(H60))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:J61">
-    <cfRule type="expression" priority="141" stopIfTrue="1">
-      <formula>COUNTBLANK($G61)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="277" priority="146">
-      <formula>LEN(TRIM(H61))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:J62">
-    <cfRule type="expression" priority="140" stopIfTrue="1">
-      <formula>COUNTBLANK($G62)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="276" priority="147">
-      <formula>LEN(TRIM(H62))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="expression" priority="143" stopIfTrue="1">
-      <formula>COUNTBLANK($G59)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="275" priority="144">
-      <formula>LEN(TRIM(H59))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="expression" dxfId="274" priority="136">
-      <formula>COUNTBLANK(F59:F59)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="273" priority="135">
-      <formula>COUNTBLANK(F60:F60)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="expression" dxfId="272" priority="134">
-      <formula>COUNTBLANK(E59:E59)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="271" priority="133">
-      <formula>COUNTBLANK(E60:E60)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="127" stopIfTrue="1">
-      <formula>COUNTBLANK($G64)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="270" priority="130">
-      <formula>LEN(TRIM(H64))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65:J65">
-    <cfRule type="expression" priority="126" stopIfTrue="1">
-      <formula>COUNTBLANK($G65)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="269" priority="131">
-      <formula>LEN(TRIM(H65))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66:J66">
-    <cfRule type="expression" priority="125" stopIfTrue="1">
-      <formula>COUNTBLANK($G66)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="268" priority="132">
-      <formula>LEN(TRIM(H66))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="expression" priority="128" stopIfTrue="1">
-      <formula>COUNTBLANK($G63)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="267" priority="129">
-      <formula>LEN(TRIM(H63))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="expression" dxfId="266" priority="121">
-      <formula>COUNTBLANK(F63:F63)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="265" priority="120">
-      <formula>COUNTBLANK(F64:F64)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="264" priority="119">
-      <formula>COUNTBLANK(E63:E63)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="263" priority="118">
-      <formula>COUNTBLANK(E64:E64)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="expression" priority="112" stopIfTrue="1">
-      <formula>COUNTBLANK($G68)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="262" priority="115">
-      <formula>LEN(TRIM(H68))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69:J69">
-    <cfRule type="expression" priority="111" stopIfTrue="1">
-      <formula>COUNTBLANK($G69)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="261" priority="116">
-      <formula>LEN(TRIM(H69))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70:J70">
-    <cfRule type="expression" priority="110" stopIfTrue="1">
-      <formula>COUNTBLANK($G70)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="260" priority="117">
-      <formula>LEN(TRIM(H70))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="113" stopIfTrue="1">
-      <formula>COUNTBLANK($G67)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="259" priority="114">
-      <formula>LEN(TRIM(H67))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="expression" dxfId="258" priority="106">
-      <formula>COUNTBLANK(F67:F67)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="257" priority="105">
-      <formula>COUNTBLANK(F68:F68)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="256" priority="104">
-      <formula>COUNTBLANK(E67:E67)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" dxfId="255" priority="103">
-      <formula>COUNTBLANK(E68:E68)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="expression" priority="97" stopIfTrue="1">
-      <formula>COUNTBLANK($G72)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="254" priority="100">
-      <formula>LEN(TRIM(H72))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73:J73">
-    <cfRule type="expression" priority="96" stopIfTrue="1">
-      <formula>COUNTBLANK($G73)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="253" priority="101">
-      <formula>LEN(TRIM(H73))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74:J74">
-    <cfRule type="expression" priority="95" stopIfTrue="1">
-      <formula>COUNTBLANK($G74)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="252" priority="102">
-      <formula>LEN(TRIM(H74))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="expression" priority="98" stopIfTrue="1">
-      <formula>COUNTBLANK($G71)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="251" priority="99">
-      <formula>LEN(TRIM(H71))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="expression" dxfId="250" priority="91">
-      <formula>COUNTBLANK(F71:F71)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="expression" dxfId="249" priority="90">
-      <formula>COUNTBLANK(F72:F72)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="248" priority="89">
-      <formula>COUNTBLANK(E71:E71)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="247" priority="88">
-      <formula>COUNTBLANK(E72:E72)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="expression" priority="79" stopIfTrue="1">
-      <formula>COUNTBLANK($G13)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="246" priority="80">
-      <formula>LEN(TRIM(K13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="expression" priority="78" stopIfTrue="1">
-      <formula>COUNTBLANK($G14)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="245" priority="81">
-      <formula>LEN(TRIM(K14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="244" priority="77">
-      <formula>COUNTBLANK(G11:G11)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="243" priority="75">
-      <formula>COUNTBLANK(G12:G12)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="242" priority="74">
-      <formula>COUNTBLANK(G15:G15)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="241" priority="73">
-      <formula>COUNTBLANK(G16:G16)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="240" priority="72">
-      <formula>COUNTBLANK(G19:G19)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="239" priority="71">
-      <formula>COUNTBLANK(G20:G20)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="238" priority="70">
-      <formula>COUNTBLANK(G23:G23)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="237" priority="69">
-      <formula>COUNTBLANK(G24:G24)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="236" priority="68">
-      <formula>COUNTBLANK(G27:G27)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="235" priority="67">
-      <formula>COUNTBLANK(G28:G28)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="expression" priority="64" stopIfTrue="1">
-      <formula>COUNTBLANK($G33)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="234" priority="65">
-      <formula>LEN(TRIM(K33))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="expression" priority="63" stopIfTrue="1">
-      <formula>COUNTBLANK($G34)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="233" priority="66">
-      <formula>LEN(TRIM(K34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="232" priority="62">
+  <conditionalFormatting sqref="K31:K32">
+    <cfRule type="expression" dxfId="75" priority="61">
       <formula>COUNTBLANK(G31:G31)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="231" priority="61">
-      <formula>COUNTBLANK(G32:G32)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="expression" priority="58" stopIfTrue="1">
-      <formula>COUNTBLANK($G37)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="230" priority="59">
-      <formula>LEN(TRIM(K37))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="expression" priority="57" stopIfTrue="1">
-      <formula>COUNTBLANK($G38)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="229" priority="60">
-      <formula>LEN(TRIM(K38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="228" priority="56">
+  <conditionalFormatting sqref="K35:K36">
+    <cfRule type="expression" dxfId="74" priority="55">
       <formula>COUNTBLANK(G35:G35)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="227" priority="55">
-      <formula>COUNTBLANK(G36:G36)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="expression" priority="52" stopIfTrue="1">
-      <formula>COUNTBLANK($G41)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="226" priority="53">
-      <formula>LEN(TRIM(K41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="expression" priority="51" stopIfTrue="1">
-      <formula>COUNTBLANK($G42)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="225" priority="54">
-      <formula>LEN(TRIM(K42))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="224" priority="50">
+  <conditionalFormatting sqref="K39:K40">
+    <cfRule type="expression" dxfId="73" priority="49">
       <formula>COUNTBLANK(G39:G39)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="223" priority="49">
-      <formula>COUNTBLANK(G40:G40)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="expression" priority="46" stopIfTrue="1">
-      <formula>COUNTBLANK($G45)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="222" priority="47">
-      <formula>LEN(TRIM(K45))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="expression" priority="45" stopIfTrue="1">
-      <formula>COUNTBLANK($G46)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="221" priority="48">
-      <formula>LEN(TRIM(K46))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="expression" dxfId="220" priority="44">
+  <conditionalFormatting sqref="K43:K44">
+    <cfRule type="expression" dxfId="72" priority="43">
       <formula>COUNTBLANK(G43:G43)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="219" priority="43">
-      <formula>COUNTBLANK(G44:G44)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="expression" priority="40" stopIfTrue="1">
-      <formula>COUNTBLANK($G49)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="218" priority="41">
-      <formula>LEN(TRIM(K49))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="expression" priority="39" stopIfTrue="1">
-      <formula>COUNTBLANK($G50)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="217" priority="42">
-      <formula>LEN(TRIM(K50))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="expression" dxfId="216" priority="38">
+  <conditionalFormatting sqref="K47:K48">
+    <cfRule type="expression" dxfId="71" priority="37">
       <formula>COUNTBLANK(G47:G47)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="expression" dxfId="215" priority="37">
-      <formula>COUNTBLANK(G48:G48)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="expression" priority="34" stopIfTrue="1">
-      <formula>COUNTBLANK($G53)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="214" priority="35">
-      <formula>LEN(TRIM(K53))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="expression" priority="33" stopIfTrue="1">
-      <formula>COUNTBLANK($G54)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="213" priority="36">
-      <formula>LEN(TRIM(K54))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="212" priority="32">
+  <conditionalFormatting sqref="K51:K52">
+    <cfRule type="expression" dxfId="70" priority="31">
       <formula>COUNTBLANK(G51:G51)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="211" priority="31">
-      <formula>COUNTBLANK(G52:G52)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57">
-    <cfRule type="expression" priority="28" stopIfTrue="1">
-      <formula>COUNTBLANK($G57)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="210" priority="29">
-      <formula>LEN(TRIM(K57))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="27" stopIfTrue="1">
-      <formula>COUNTBLANK($G58)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="209" priority="30">
-      <formula>LEN(TRIM(K58))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
-    <cfRule type="expression" dxfId="208" priority="26">
+  <conditionalFormatting sqref="K55:K56">
+    <cfRule type="expression" dxfId="69" priority="25">
       <formula>COUNTBLANK(G55:G55)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
-    <cfRule type="expression" dxfId="207" priority="25">
-      <formula>COUNTBLANK(G56:G56)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" priority="22" stopIfTrue="1">
-      <formula>COUNTBLANK($G61)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="206" priority="23">
-      <formula>LEN(TRIM(K61))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" priority="21" stopIfTrue="1">
-      <formula>COUNTBLANK($G62)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="205" priority="24">
-      <formula>LEN(TRIM(K62))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
-    <cfRule type="expression" dxfId="204" priority="20">
+  <conditionalFormatting sqref="K59:K60">
+    <cfRule type="expression" dxfId="68" priority="19">
       <formula>COUNTBLANK(G59:G59)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="203" priority="19">
-      <formula>COUNTBLANK(G60:G60)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" priority="16" stopIfTrue="1">
-      <formula>COUNTBLANK($G65)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="202" priority="17">
-      <formula>LEN(TRIM(K65))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" priority="15" stopIfTrue="1">
-      <formula>COUNTBLANK($G66)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="201" priority="18">
-      <formula>LEN(TRIM(K66))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="200" priority="14">
+  <conditionalFormatting sqref="K63:K64">
+    <cfRule type="expression" dxfId="67" priority="13">
       <formula>COUNTBLANK(G63:G63)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="199" priority="13">
-      <formula>COUNTBLANK(G64:G64)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" priority="10" stopIfTrue="1">
-      <formula>COUNTBLANK($G69)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="198" priority="11">
-      <formula>LEN(TRIM(K69))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" priority="9" stopIfTrue="1">
-      <formula>COUNTBLANK($G70)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="197" priority="12">
-      <formula>LEN(TRIM(K70))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="196" priority="8">
+  <conditionalFormatting sqref="K67:K68">
+    <cfRule type="expression" dxfId="66" priority="7">
       <formula>COUNTBLANK(G67:G67)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="195" priority="7">
-      <formula>COUNTBLANK(G68:G68)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K73">
-    <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>COUNTBLANK($G73)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="194" priority="5">
-      <formula>LEN(TRIM(K73))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K74">
-    <cfRule type="expression" priority="3" stopIfTrue="1">
-      <formula>COUNTBLANK($G74)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="193" priority="6">
-      <formula>LEN(TRIM(K74))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="192" priority="2">
+  <conditionalFormatting sqref="K71:K72">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>COUNTBLANK(G71:G71)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="191" priority="1">
-      <formula>COUNTBLANK(G72:G72)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
@@ -26310,1092 +23736,420 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:I12">
+  <conditionalFormatting sqref="H11:I12">
     <cfRule type="expression" priority="299" stopIfTrue="1">
-      <formula>COUNTBLANK($G12)=1</formula>
+      <formula>COUNTBLANK($G11)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="190" priority="302">
-      <formula>LEN(TRIM(H12))=0</formula>
+    <cfRule type="containsBlanks" dxfId="64" priority="301">
+      <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:J13">
-    <cfRule type="expression" priority="298" stopIfTrue="1">
+  <conditionalFormatting sqref="H15:I16">
+    <cfRule type="expression" priority="286" stopIfTrue="1">
+      <formula>COUNTBLANK($G15)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="63" priority="288">
+      <formula>LEN(TRIM(H15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:I20">
+    <cfRule type="expression" priority="273" stopIfTrue="1">
+      <formula>COUNTBLANK($G19)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="62" priority="275">
+      <formula>LEN(TRIM(H19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:I24">
+    <cfRule type="containsBlanks" dxfId="61" priority="262">
+      <formula>LEN(TRIM(H23))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="260" stopIfTrue="1">
+      <formula>COUNTBLANK($G23)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:I28">
+    <cfRule type="containsBlanks" dxfId="60" priority="249">
+      <formula>LEN(TRIM(H27))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="247" stopIfTrue="1">
+      <formula>COUNTBLANK($G27)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:I32">
+    <cfRule type="containsBlanks" dxfId="59" priority="236">
+      <formula>LEN(TRIM(H31))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="234" stopIfTrue="1">
+      <formula>COUNTBLANK($G31)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:I36">
+    <cfRule type="containsBlanks" dxfId="58" priority="223">
+      <formula>LEN(TRIM(H35))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="221" stopIfTrue="1">
+      <formula>COUNTBLANK($G35)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:I40">
+    <cfRule type="expression" priority="208" stopIfTrue="1">
+      <formula>COUNTBLANK($G39)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="57" priority="210">
+      <formula>LEN(TRIM(H39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:I44">
+    <cfRule type="expression" priority="195" stopIfTrue="1">
+      <formula>COUNTBLANK($G43)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="56" priority="197">
+      <formula>LEN(TRIM(H43))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:I48">
+    <cfRule type="containsBlanks" dxfId="55" priority="184">
+      <formula>LEN(TRIM(H47))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="182" stopIfTrue="1">
+      <formula>COUNTBLANK($G47)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:I52">
+    <cfRule type="containsBlanks" dxfId="54" priority="171">
+      <formula>LEN(TRIM(H51))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="169" stopIfTrue="1">
+      <formula>COUNTBLANK($G51)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:I56">
+    <cfRule type="expression" priority="156" stopIfTrue="1">
+      <formula>COUNTBLANK($G55)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="53" priority="158">
+      <formula>LEN(TRIM(H55))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:I60">
+    <cfRule type="containsBlanks" dxfId="52" priority="145">
+      <formula>LEN(TRIM(H59))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="143" stopIfTrue="1">
+      <formula>COUNTBLANK($G59)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63:I64">
+    <cfRule type="containsBlanks" dxfId="51" priority="132">
+      <formula>LEN(TRIM(H63))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="130" stopIfTrue="1">
+      <formula>COUNTBLANK($G63)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:I68">
+    <cfRule type="containsBlanks" dxfId="50" priority="119">
+      <formula>LEN(TRIM(H67))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="117" stopIfTrue="1">
+      <formula>COUNTBLANK($G67)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:I72">
+    <cfRule type="containsBlanks" dxfId="49" priority="106">
+      <formula>LEN(TRIM(H71))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="104" stopIfTrue="1">
+      <formula>COUNTBLANK($G71)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:K14">
+    <cfRule type="expression" priority="93" stopIfTrue="1">
       <formula>COUNTBLANK($G13)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="189" priority="303">
+    <cfRule type="containsBlanks" dxfId="48" priority="95">
       <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:J14">
-    <cfRule type="expression" priority="297" stopIfTrue="1">
-      <formula>COUNTBLANK($G14)=1</formula>
+  <conditionalFormatting sqref="H17:K18">
+    <cfRule type="expression" priority="87" stopIfTrue="1">
+      <formula>COUNTBLANK($G17)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="188" priority="304">
-      <formula>LEN(TRIM(H14))=0</formula>
+    <cfRule type="containsBlanks" dxfId="47" priority="89">
+      <formula>LEN(TRIM(H17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:I11">
-    <cfRule type="expression" priority="300" stopIfTrue="1">
-      <formula>COUNTBLANK($G11)=1</formula>
+  <conditionalFormatting sqref="H21:K22">
+    <cfRule type="expression" priority="81" stopIfTrue="1">
+      <formula>COUNTBLANK($G21)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="187" priority="301">
-      <formula>LEN(TRIM(H11))=0</formula>
+    <cfRule type="containsBlanks" dxfId="46" priority="83">
+      <formula>LEN(TRIM(H21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="186" priority="293">
+  <conditionalFormatting sqref="H25:K26">
+    <cfRule type="expression" priority="75" stopIfTrue="1">
+      <formula>COUNTBLANK($G25)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="45" priority="77">
+      <formula>LEN(TRIM(H25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:K30">
+    <cfRule type="containsBlanks" dxfId="44" priority="71">
+      <formula>LEN(TRIM(H29))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="69" stopIfTrue="1">
+      <formula>COUNTBLANK($G29)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:K34">
+    <cfRule type="containsBlanks" dxfId="43" priority="65">
+      <formula>LEN(TRIM(H33))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="63" stopIfTrue="1">
+      <formula>COUNTBLANK($G33)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:K38">
+    <cfRule type="containsBlanks" dxfId="42" priority="59">
+      <formula>LEN(TRIM(H37))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="57" stopIfTrue="1">
+      <formula>COUNTBLANK($G37)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:K42">
+    <cfRule type="expression" priority="51" stopIfTrue="1">
+      <formula>COUNTBLANK($G41)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="41" priority="53">
+      <formula>LEN(TRIM(H41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:K46">
+    <cfRule type="expression" priority="45" stopIfTrue="1">
+      <formula>COUNTBLANK($G45)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="40" priority="47">
+      <formula>LEN(TRIM(H45))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:K50">
+    <cfRule type="expression" priority="39" stopIfTrue="1">
+      <formula>COUNTBLANK($G49)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="39" priority="41">
+      <formula>LEN(TRIM(H49))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:K54">
+    <cfRule type="containsBlanks" dxfId="38" priority="35">
+      <formula>LEN(TRIM(H53))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33" stopIfTrue="1">
+      <formula>COUNTBLANK($G53)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:K58">
+    <cfRule type="containsBlanks" dxfId="37" priority="29">
+      <formula>LEN(TRIM(H57))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" stopIfTrue="1">
+      <formula>COUNTBLANK($G57)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:K62">
+    <cfRule type="containsBlanks" dxfId="36" priority="23">
+      <formula>LEN(TRIM(H61))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" stopIfTrue="1">
+      <formula>COUNTBLANK($G61)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:K66">
+    <cfRule type="expression" priority="15" stopIfTrue="1">
+      <formula>COUNTBLANK($G65)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="35" priority="17">
+      <formula>LEN(TRIM(H65))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:K70">
+    <cfRule type="expression" priority="9" stopIfTrue="1">
+      <formula>COUNTBLANK($G69)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="34" priority="11">
+      <formula>LEN(TRIM(H69))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:K74">
+    <cfRule type="containsBlanks" dxfId="33" priority="5">
+      <formula>LEN(TRIM(H73))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" stopIfTrue="1">
+      <formula>COUNTBLANK($G73)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J12">
+    <cfRule type="expression" dxfId="32" priority="292">
       <formula>COUNTBLANK(F11:F11)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="185" priority="292">
-      <formula>COUNTBLANK(F12:F12)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:I16">
-    <cfRule type="expression" priority="286" stopIfTrue="1">
-      <formula>COUNTBLANK($G16)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="184" priority="289">
-      <formula>LEN(TRIM(H16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:J17">
-    <cfRule type="expression" priority="285" stopIfTrue="1">
-      <formula>COUNTBLANK($G17)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="183" priority="290">
-      <formula>LEN(TRIM(H17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:J18">
-    <cfRule type="expression" priority="284" stopIfTrue="1">
-      <formula>COUNTBLANK($G18)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="182" priority="291">
-      <formula>LEN(TRIM(H18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:I15">
-    <cfRule type="expression" priority="287" stopIfTrue="1">
-      <formula>COUNTBLANK($G15)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="181" priority="288">
-      <formula>LEN(TRIM(H15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="180" priority="280">
+  <conditionalFormatting sqref="J15:J16">
+    <cfRule type="expression" dxfId="31" priority="279">
       <formula>COUNTBLANK(F15:F15)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="179" priority="279">
-      <formula>COUNTBLANK(F16:F16)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:I20">
-    <cfRule type="expression" priority="273" stopIfTrue="1">
-      <formula>COUNTBLANK($G20)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="178" priority="276">
-      <formula>LEN(TRIM(H20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" priority="272" stopIfTrue="1">
-      <formula>COUNTBLANK($G21)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="177" priority="277">
-      <formula>LEN(TRIM(H21))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:J22">
-    <cfRule type="expression" priority="271" stopIfTrue="1">
-      <formula>COUNTBLANK($G22)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="176" priority="278">
-      <formula>LEN(TRIM(H22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:I19">
-    <cfRule type="expression" priority="274" stopIfTrue="1">
-      <formula>COUNTBLANK($G19)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="175" priority="275">
-      <formula>LEN(TRIM(H19))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="174" priority="267">
+  <conditionalFormatting sqref="J19:J20">
+    <cfRule type="expression" dxfId="30" priority="266">
       <formula>COUNTBLANK(F19:F19)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="173" priority="266">
-      <formula>COUNTBLANK(F20:F20)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:I24">
-    <cfRule type="expression" priority="260" stopIfTrue="1">
-      <formula>COUNTBLANK($G24)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="172" priority="263">
-      <formula>LEN(TRIM(H24))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:J25">
-    <cfRule type="expression" priority="259" stopIfTrue="1">
-      <formula>COUNTBLANK($G25)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="171" priority="264">
-      <formula>LEN(TRIM(H25))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:J26">
-    <cfRule type="expression" priority="258" stopIfTrue="1">
-      <formula>COUNTBLANK($G26)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="170" priority="265">
-      <formula>LEN(TRIM(H26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:I23">
-    <cfRule type="expression" priority="261" stopIfTrue="1">
-      <formula>COUNTBLANK($G23)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="169" priority="262">
-      <formula>LEN(TRIM(H23))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="168" priority="254">
+  <conditionalFormatting sqref="J23:J24">
+    <cfRule type="expression" dxfId="29" priority="253">
       <formula>COUNTBLANK(F23:F23)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="167" priority="253">
-      <formula>COUNTBLANK(F24:F24)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28:I28">
-    <cfRule type="expression" priority="247" stopIfTrue="1">
-      <formula>COUNTBLANK($G28)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="166" priority="250">
-      <formula>LEN(TRIM(H28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:J29">
-    <cfRule type="expression" priority="246" stopIfTrue="1">
-      <formula>COUNTBLANK($G29)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="165" priority="251">
-      <formula>LEN(TRIM(H29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:J30">
-    <cfRule type="expression" priority="245" stopIfTrue="1">
-      <formula>COUNTBLANK($G30)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="164" priority="252">
-      <formula>LEN(TRIM(H30))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:I27">
-    <cfRule type="expression" priority="248" stopIfTrue="1">
-      <formula>COUNTBLANK($G27)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="163" priority="249">
-      <formula>LEN(TRIM(H27))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="162" priority="241">
+  <conditionalFormatting sqref="J27:J28">
+    <cfRule type="expression" dxfId="28" priority="240">
       <formula>COUNTBLANK(F27:F27)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="161" priority="240">
-      <formula>COUNTBLANK(F28:F28)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I32">
-    <cfRule type="expression" priority="234" stopIfTrue="1">
-      <formula>COUNTBLANK($G32)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="160" priority="237">
-      <formula>LEN(TRIM(H32))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:J33">
-    <cfRule type="expression" priority="233" stopIfTrue="1">
-      <formula>COUNTBLANK($G33)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="159" priority="238">
-      <formula>LEN(TRIM(H33))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:J34">
-    <cfRule type="expression" priority="232" stopIfTrue="1">
-      <formula>COUNTBLANK($G34)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="158" priority="239">
-      <formula>LEN(TRIM(H34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I31">
-    <cfRule type="expression" priority="235" stopIfTrue="1">
-      <formula>COUNTBLANK($G31)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="157" priority="236">
-      <formula>LEN(TRIM(H31))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="156" priority="228">
+  <conditionalFormatting sqref="J31:J32">
+    <cfRule type="expression" dxfId="27" priority="227">
       <formula>COUNTBLANK(F31:F31)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="155" priority="227">
-      <formula>COUNTBLANK(F32:F32)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:I36">
-    <cfRule type="expression" priority="221" stopIfTrue="1">
-      <formula>COUNTBLANK($G36)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="154" priority="224">
-      <formula>LEN(TRIM(H36))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37">
-    <cfRule type="expression" priority="220" stopIfTrue="1">
-      <formula>COUNTBLANK($G37)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="153" priority="225">
-      <formula>LEN(TRIM(H37))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:J38">
-    <cfRule type="expression" priority="219" stopIfTrue="1">
-      <formula>COUNTBLANK($G38)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="152" priority="226">
-      <formula>LEN(TRIM(H38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I35">
-    <cfRule type="expression" priority="222" stopIfTrue="1">
-      <formula>COUNTBLANK($G35)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="151" priority="223">
-      <formula>LEN(TRIM(H35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="150" priority="215">
+  <conditionalFormatting sqref="J35:J36">
+    <cfRule type="expression" dxfId="26" priority="214">
       <formula>COUNTBLANK(F35:F35)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="149" priority="214">
-      <formula>COUNTBLANK(F36:F36)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:I40">
-    <cfRule type="expression" priority="208" stopIfTrue="1">
-      <formula>COUNTBLANK($G40)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="148" priority="211">
-      <formula>LEN(TRIM(H40))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:J41">
-    <cfRule type="expression" priority="207" stopIfTrue="1">
-      <formula>COUNTBLANK($G41)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="147" priority="212">
-      <formula>LEN(TRIM(H41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:J42">
-    <cfRule type="expression" priority="206" stopIfTrue="1">
-      <formula>COUNTBLANK($G42)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="146" priority="213">
-      <formula>LEN(TRIM(H42))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:I39">
-    <cfRule type="expression" priority="209" stopIfTrue="1">
-      <formula>COUNTBLANK($G39)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="145" priority="210">
-      <formula>LEN(TRIM(H39))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="144" priority="202">
+  <conditionalFormatting sqref="J39:J40">
+    <cfRule type="expression" dxfId="25" priority="201">
       <formula>COUNTBLANK(F39:F39)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="143" priority="201">
-      <formula>COUNTBLANK(F40:F40)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:I44">
-    <cfRule type="expression" priority="195" stopIfTrue="1">
-      <formula>COUNTBLANK($G44)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="142" priority="198">
-      <formula>LEN(TRIM(H44))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:J45">
-    <cfRule type="expression" priority="194" stopIfTrue="1">
-      <formula>COUNTBLANK($G45)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="141" priority="199">
-      <formula>LEN(TRIM(H45))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:J46">
-    <cfRule type="expression" priority="193" stopIfTrue="1">
-      <formula>COUNTBLANK($G46)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="140" priority="200">
-      <formula>LEN(TRIM(H46))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:I43">
-    <cfRule type="expression" priority="196" stopIfTrue="1">
-      <formula>COUNTBLANK($G43)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="139" priority="197">
-      <formula>LEN(TRIM(H43))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="expression" dxfId="138" priority="189">
+  <conditionalFormatting sqref="J43:J44">
+    <cfRule type="expression" dxfId="24" priority="188">
       <formula>COUNTBLANK(F43:F43)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="expression" dxfId="137" priority="188">
-      <formula>COUNTBLANK(F44:F44)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:I48">
-    <cfRule type="expression" priority="182" stopIfTrue="1">
-      <formula>COUNTBLANK($G48)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="136" priority="185">
-      <formula>LEN(TRIM(H48))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:J49">
-    <cfRule type="expression" priority="181" stopIfTrue="1">
-      <formula>COUNTBLANK($G49)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="135" priority="186">
-      <formula>LEN(TRIM(H49))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:J50">
-    <cfRule type="expression" priority="180" stopIfTrue="1">
-      <formula>COUNTBLANK($G50)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="134" priority="187">
-      <formula>LEN(TRIM(H50))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47:I47">
-    <cfRule type="expression" priority="183" stopIfTrue="1">
-      <formula>COUNTBLANK($G47)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="133" priority="184">
-      <formula>LEN(TRIM(H47))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="132" priority="176">
+  <conditionalFormatting sqref="J47:J48">
+    <cfRule type="expression" dxfId="23" priority="175">
       <formula>COUNTBLANK(F47:F47)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="expression" dxfId="131" priority="175">
-      <formula>COUNTBLANK(F48:F48)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52:I52">
-    <cfRule type="expression" priority="169" stopIfTrue="1">
-      <formula>COUNTBLANK($G52)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="130" priority="172">
-      <formula>LEN(TRIM(H52))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:J53">
-    <cfRule type="expression" priority="168" stopIfTrue="1">
-      <formula>COUNTBLANK($G53)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="129" priority="173">
-      <formula>LEN(TRIM(H53))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:J54">
-    <cfRule type="expression" priority="167" stopIfTrue="1">
-      <formula>COUNTBLANK($G54)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="128" priority="174">
-      <formula>LEN(TRIM(H54))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:I51">
-    <cfRule type="expression" priority="170" stopIfTrue="1">
-      <formula>COUNTBLANK($G51)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="127" priority="171">
-      <formula>LEN(TRIM(H51))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="expression" dxfId="126" priority="163">
+  <conditionalFormatting sqref="J51:J52">
+    <cfRule type="expression" dxfId="22" priority="162">
       <formula>COUNTBLANK(F51:F51)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="125" priority="162">
-      <formula>COUNTBLANK(F52:F52)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:I56">
-    <cfRule type="expression" priority="156" stopIfTrue="1">
-      <formula>COUNTBLANK($G56)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="124" priority="159">
-      <formula>LEN(TRIM(H56))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:J57">
-    <cfRule type="expression" priority="155" stopIfTrue="1">
-      <formula>COUNTBLANK($G57)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="123" priority="160">
-      <formula>LEN(TRIM(H57))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:J58">
-    <cfRule type="expression" priority="154" stopIfTrue="1">
-      <formula>COUNTBLANK($G58)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="122" priority="161">
-      <formula>LEN(TRIM(H58))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:I55">
-    <cfRule type="expression" priority="157" stopIfTrue="1">
-      <formula>COUNTBLANK($G55)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="121" priority="158">
-      <formula>LEN(TRIM(H55))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="expression" dxfId="120" priority="150">
+  <conditionalFormatting sqref="J55:J56">
+    <cfRule type="expression" dxfId="21" priority="149">
       <formula>COUNTBLANK(F55:F55)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="119" priority="149">
-      <formula>COUNTBLANK(F56:F56)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60:I60">
-    <cfRule type="expression" priority="143" stopIfTrue="1">
-      <formula>COUNTBLANK($G60)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="118" priority="146">
-      <formula>LEN(TRIM(H60))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:J61">
-    <cfRule type="expression" priority="142" stopIfTrue="1">
-      <formula>COUNTBLANK($G61)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="117" priority="147">
-      <formula>LEN(TRIM(H61))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:J62">
-    <cfRule type="expression" priority="141" stopIfTrue="1">
-      <formula>COUNTBLANK($G62)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="116" priority="148">
-      <formula>LEN(TRIM(H62))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:I59">
-    <cfRule type="expression" priority="144" stopIfTrue="1">
-      <formula>COUNTBLANK($G59)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="115" priority="145">
-      <formula>LEN(TRIM(H59))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="expression" dxfId="114" priority="137">
+  <conditionalFormatting sqref="J59:J60">
+    <cfRule type="expression" dxfId="20" priority="136">
       <formula>COUNTBLANK(F59:F59)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="113" priority="136">
-      <formula>COUNTBLANK(F60:F60)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64:I64">
-    <cfRule type="expression" priority="130" stopIfTrue="1">
-      <formula>COUNTBLANK($G64)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="112" priority="133">
-      <formula>LEN(TRIM(H64))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65:J65">
-    <cfRule type="expression" priority="129" stopIfTrue="1">
-      <formula>COUNTBLANK($G65)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="111" priority="134">
-      <formula>LEN(TRIM(H65))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66:J66">
-    <cfRule type="expression" priority="128" stopIfTrue="1">
-      <formula>COUNTBLANK($G66)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="110" priority="135">
-      <formula>LEN(TRIM(H66))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63:I63">
-    <cfRule type="expression" priority="131" stopIfTrue="1">
-      <formula>COUNTBLANK($G63)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="109" priority="132">
-      <formula>LEN(TRIM(H63))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="expression" dxfId="108" priority="124">
+  <conditionalFormatting sqref="J63:J64">
+    <cfRule type="expression" dxfId="19" priority="123">
       <formula>COUNTBLANK(F63:F63)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="107" priority="123">
-      <formula>COUNTBLANK(F64:F64)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68:I68">
-    <cfRule type="expression" priority="117" stopIfTrue="1">
-      <formula>COUNTBLANK($G68)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="106" priority="120">
-      <formula>LEN(TRIM(H68))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69:J69">
-    <cfRule type="expression" priority="116" stopIfTrue="1">
-      <formula>COUNTBLANK($G69)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="105" priority="121">
-      <formula>LEN(TRIM(H69))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70:J70">
-    <cfRule type="expression" priority="115" stopIfTrue="1">
-      <formula>COUNTBLANK($G70)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="104" priority="122">
-      <formula>LEN(TRIM(H70))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67:I67">
-    <cfRule type="expression" priority="118" stopIfTrue="1">
-      <formula>COUNTBLANK($G67)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="103" priority="119">
-      <formula>LEN(TRIM(H67))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="expression" dxfId="102" priority="111">
+  <conditionalFormatting sqref="J67:J68">
+    <cfRule type="expression" dxfId="18" priority="110">
       <formula>COUNTBLANK(F67:F67)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="expression" dxfId="101" priority="110">
-      <formula>COUNTBLANK(F68:F68)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72:I72">
-    <cfRule type="expression" priority="104" stopIfTrue="1">
-      <formula>COUNTBLANK($G72)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="100" priority="107">
-      <formula>LEN(TRIM(H72))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73:J73">
-    <cfRule type="expression" priority="103" stopIfTrue="1">
-      <formula>COUNTBLANK($G73)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="99" priority="108">
-      <formula>LEN(TRIM(H73))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74:J74">
-    <cfRule type="expression" priority="102" stopIfTrue="1">
-      <formula>COUNTBLANK($G74)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="98" priority="109">
-      <formula>LEN(TRIM(H74))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:I71">
-    <cfRule type="expression" priority="105" stopIfTrue="1">
-      <formula>COUNTBLANK($G71)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="97" priority="106">
-      <formula>LEN(TRIM(H71))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="expression" dxfId="96" priority="98">
+  <conditionalFormatting sqref="J71:J72">
+    <cfRule type="expression" dxfId="17" priority="97">
       <formula>COUNTBLANK(F71:F71)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="expression" dxfId="95" priority="97">
-      <formula>COUNTBLANK(F72:F72)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="expression" priority="94" stopIfTrue="1">
-      <formula>COUNTBLANK($G13)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="94" priority="95">
-      <formula>LEN(TRIM(K13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="expression" priority="93" stopIfTrue="1">
-      <formula>COUNTBLANK($G14)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="93" priority="96">
-      <formula>LEN(TRIM(K14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="92" priority="92">
+  <conditionalFormatting sqref="K11:K12">
+    <cfRule type="expression" dxfId="16" priority="91">
       <formula>COUNTBLANK(G11:G11)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="91" priority="91">
-      <formula>COUNTBLANK(G12:G12)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" priority="88" stopIfTrue="1">
-      <formula>COUNTBLANK($G17)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="90" priority="89">
-      <formula>LEN(TRIM(K17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="expression" priority="87" stopIfTrue="1">
-      <formula>COUNTBLANK($G18)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="89" priority="90">
-      <formula>LEN(TRIM(K18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="88" priority="86">
+  <conditionalFormatting sqref="K15:K16">
+    <cfRule type="expression" dxfId="15" priority="85">
       <formula>COUNTBLANK(G15:G15)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="87" priority="85">
-      <formula>COUNTBLANK(G16:G16)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="expression" priority="82" stopIfTrue="1">
-      <formula>COUNTBLANK($G21)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="86" priority="83">
-      <formula>LEN(TRIM(K21))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" priority="81" stopIfTrue="1">
-      <formula>COUNTBLANK($G22)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="85" priority="84">
-      <formula>LEN(TRIM(K22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="84" priority="80">
+  <conditionalFormatting sqref="K19:K20">
+    <cfRule type="expression" dxfId="14" priority="79">
       <formula>COUNTBLANK(G19:G19)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="83" priority="79">
-      <formula>COUNTBLANK(G20:G20)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="expression" priority="76" stopIfTrue="1">
-      <formula>COUNTBLANK($G25)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="82" priority="77">
-      <formula>LEN(TRIM(K25))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" priority="75" stopIfTrue="1">
-      <formula>COUNTBLANK($G26)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="81" priority="78">
-      <formula>LEN(TRIM(K26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="80" priority="74">
+  <conditionalFormatting sqref="K23:K24">
+    <cfRule type="expression" dxfId="13" priority="73">
       <formula>COUNTBLANK(G23:G23)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="79" priority="73">
-      <formula>COUNTBLANK(G24:G24)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="expression" priority="70" stopIfTrue="1">
-      <formula>COUNTBLANK($G29)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="78" priority="71">
-      <formula>LEN(TRIM(K29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="expression" priority="69" stopIfTrue="1">
-      <formula>COUNTBLANK($G30)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="77" priority="72">
-      <formula>LEN(TRIM(K30))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="76" priority="68">
+  <conditionalFormatting sqref="K27:K28">
+    <cfRule type="expression" dxfId="12" priority="67">
       <formula>COUNTBLANK(G27:G27)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="75" priority="67">
-      <formula>COUNTBLANK(G28:G28)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="expression" priority="64" stopIfTrue="1">
-      <formula>COUNTBLANK($G33)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="74" priority="65">
-      <formula>LEN(TRIM(K33))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="expression" priority="63" stopIfTrue="1">
-      <formula>COUNTBLANK($G34)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="73" priority="66">
-      <formula>LEN(TRIM(K34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="72" priority="62">
+  <conditionalFormatting sqref="K31:K32">
+    <cfRule type="expression" dxfId="11" priority="61">
       <formula>COUNTBLANK(G31:G31)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="71" priority="61">
-      <formula>COUNTBLANK(G32:G32)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="expression" priority="58" stopIfTrue="1">
-      <formula>COUNTBLANK($G37)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="70" priority="59">
-      <formula>LEN(TRIM(K37))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="expression" priority="57" stopIfTrue="1">
-      <formula>COUNTBLANK($G38)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="69" priority="60">
-      <formula>LEN(TRIM(K38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="68" priority="56">
+  <conditionalFormatting sqref="K35:K36">
+    <cfRule type="expression" dxfId="10" priority="55">
       <formula>COUNTBLANK(G35:G35)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="67" priority="55">
-      <formula>COUNTBLANK(G36:G36)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="expression" priority="52" stopIfTrue="1">
-      <formula>COUNTBLANK($G41)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="66" priority="53">
-      <formula>LEN(TRIM(K41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="expression" priority="51" stopIfTrue="1">
-      <formula>COUNTBLANK($G42)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="65" priority="54">
-      <formula>LEN(TRIM(K42))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="64" priority="50">
+  <conditionalFormatting sqref="K39:K40">
+    <cfRule type="expression" dxfId="9" priority="49">
       <formula>COUNTBLANK(G39:G39)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="63" priority="49">
-      <formula>COUNTBLANK(G40:G40)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="expression" priority="46" stopIfTrue="1">
-      <formula>COUNTBLANK($G45)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="62" priority="47">
-      <formula>LEN(TRIM(K45))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="expression" priority="45" stopIfTrue="1">
-      <formula>COUNTBLANK($G46)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="61" priority="48">
-      <formula>LEN(TRIM(K46))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="expression" dxfId="60" priority="44">
+  <conditionalFormatting sqref="K43:K44">
+    <cfRule type="expression" dxfId="8" priority="43">
       <formula>COUNTBLANK(G43:G43)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="59" priority="43">
-      <formula>COUNTBLANK(G44:G44)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="expression" priority="40" stopIfTrue="1">
-      <formula>COUNTBLANK($G49)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="58" priority="41">
-      <formula>LEN(TRIM(K49))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="expression" priority="39" stopIfTrue="1">
-      <formula>COUNTBLANK($G50)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="57" priority="42">
-      <formula>LEN(TRIM(K50))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="expression" dxfId="56" priority="38">
+  <conditionalFormatting sqref="K47:K48">
+    <cfRule type="expression" dxfId="7" priority="37">
       <formula>COUNTBLANK(G47:G47)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="expression" dxfId="55" priority="37">
-      <formula>COUNTBLANK(G48:G48)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="expression" priority="34" stopIfTrue="1">
-      <formula>COUNTBLANK($G53)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="54" priority="35">
-      <formula>LEN(TRIM(K53))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="expression" priority="33" stopIfTrue="1">
-      <formula>COUNTBLANK($G54)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="53" priority="36">
-      <formula>LEN(TRIM(K54))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="52" priority="32">
+  <conditionalFormatting sqref="K51:K52">
+    <cfRule type="expression" dxfId="6" priority="31">
       <formula>COUNTBLANK(G51:G51)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="51" priority="31">
-      <formula>COUNTBLANK(G52:G52)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57">
-    <cfRule type="expression" priority="28" stopIfTrue="1">
-      <formula>COUNTBLANK($G57)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="50" priority="29">
-      <formula>LEN(TRIM(K57))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="27" stopIfTrue="1">
-      <formula>COUNTBLANK($G58)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="49" priority="30">
-      <formula>LEN(TRIM(K58))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
-    <cfRule type="expression" dxfId="48" priority="26">
+  <conditionalFormatting sqref="K55:K56">
+    <cfRule type="expression" dxfId="5" priority="25">
       <formula>COUNTBLANK(G55:G55)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
-    <cfRule type="expression" dxfId="47" priority="25">
-      <formula>COUNTBLANK(G56:G56)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" priority="22" stopIfTrue="1">
-      <formula>COUNTBLANK($G61)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="46" priority="23">
-      <formula>LEN(TRIM(K61))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" priority="21" stopIfTrue="1">
-      <formula>COUNTBLANK($G62)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="45" priority="24">
-      <formula>LEN(TRIM(K62))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
-    <cfRule type="expression" dxfId="44" priority="20">
+  <conditionalFormatting sqref="K59:K60">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>COUNTBLANK(G59:G59)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="43" priority="19">
-      <formula>COUNTBLANK(G60:G60)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" priority="16" stopIfTrue="1">
-      <formula>COUNTBLANK($G65)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="42" priority="17">
-      <formula>LEN(TRIM(K65))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" priority="15" stopIfTrue="1">
-      <formula>COUNTBLANK($G66)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="41" priority="18">
-      <formula>LEN(TRIM(K66))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="40" priority="14">
+  <conditionalFormatting sqref="K63:K64">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>COUNTBLANK(G63:G63)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="39" priority="13">
-      <formula>COUNTBLANK(G64:G64)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" priority="10" stopIfTrue="1">
-      <formula>COUNTBLANK($G69)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="38" priority="11">
-      <formula>LEN(TRIM(K69))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" priority="9" stopIfTrue="1">
-      <formula>COUNTBLANK($G70)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="37" priority="12">
-      <formula>LEN(TRIM(K70))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="36" priority="8">
+  <conditionalFormatting sqref="K67:K68">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>COUNTBLANK(G67:G67)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="35" priority="7">
-      <formula>COUNTBLANK(G68:G68)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K73">
-    <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>COUNTBLANK($G73)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="34" priority="5">
-      <formula>LEN(TRIM(K73))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K74">
-    <cfRule type="expression" priority="3" stopIfTrue="1">
-      <formula>COUNTBLANK($G74)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="33" priority="6">
-      <formula>LEN(TRIM(K74))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="32" priority="2">
+  <conditionalFormatting sqref="K71:K72">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>COUNTBLANK(G71:G71)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>COUNTBLANK(G72:G72)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -29856,252 +26610,12 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H11:J12 H15:J16 H19:J20 H23:J24 H27:J28 H31:J32 H35:J36 H39:J40 H43:J44 H47:J48 H51:J52 H55:J56 H59:J60 H63:J64 H67:J68">
-    <cfRule type="expression" priority="60" stopIfTrue="1">
+  <conditionalFormatting sqref="H11:J70">
+    <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>COUNTBLANK($G11)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="61">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(H11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:J13">
-    <cfRule type="expression" priority="59" stopIfTrue="1">
-      <formula>COUNTBLANK($G13)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="29" priority="62">
-      <formula>LEN(TRIM(H13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:J14">
-    <cfRule type="expression" priority="57" stopIfTrue="1">
-      <formula>COUNTBLANK($G14)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="28" priority="58">
-      <formula>LEN(TRIM(H14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:J17">
-    <cfRule type="expression" priority="55" stopIfTrue="1">
-      <formula>COUNTBLANK($G17)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="56">
-      <formula>LEN(TRIM(H17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:J18">
-    <cfRule type="expression" priority="53" stopIfTrue="1">
-      <formula>COUNTBLANK($G18)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="54">
-      <formula>LEN(TRIM(H18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" priority="51" stopIfTrue="1">
-      <formula>COUNTBLANK($G21)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="25" priority="52">
-      <formula>LEN(TRIM(H21))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:J22">
-    <cfRule type="expression" priority="49" stopIfTrue="1">
-      <formula>COUNTBLANK($G22)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="24" priority="50">
-      <formula>LEN(TRIM(H22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:J25">
-    <cfRule type="expression" priority="47" stopIfTrue="1">
-      <formula>COUNTBLANK($G25)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="23" priority="48">
-      <formula>LEN(TRIM(H25))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:J26">
-    <cfRule type="expression" priority="45" stopIfTrue="1">
-      <formula>COUNTBLANK($G26)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="22" priority="46">
-      <formula>LEN(TRIM(H26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:J29">
-    <cfRule type="expression" priority="43" stopIfTrue="1">
-      <formula>COUNTBLANK($G29)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="21" priority="44">
-      <formula>LEN(TRIM(H29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:J30">
-    <cfRule type="expression" priority="41" stopIfTrue="1">
-      <formula>COUNTBLANK($G30)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="20" priority="42">
-      <formula>LEN(TRIM(H30))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:J33">
-    <cfRule type="expression" priority="39" stopIfTrue="1">
-      <formula>COUNTBLANK($G33)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="19" priority="40">
-      <formula>LEN(TRIM(H33))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:J34">
-    <cfRule type="expression" priority="37" stopIfTrue="1">
-      <formula>COUNTBLANK($G34)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="18" priority="38">
-      <formula>LEN(TRIM(H34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37">
-    <cfRule type="expression" priority="35" stopIfTrue="1">
-      <formula>COUNTBLANK($G37)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="17" priority="36">
-      <formula>LEN(TRIM(H37))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:J38">
-    <cfRule type="expression" priority="33" stopIfTrue="1">
-      <formula>COUNTBLANK($G38)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="16" priority="34">
-      <formula>LEN(TRIM(H38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:J41">
-    <cfRule type="expression" priority="31" stopIfTrue="1">
-      <formula>COUNTBLANK($G41)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="15" priority="32">
-      <formula>LEN(TRIM(H41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:J42">
-    <cfRule type="expression" priority="29" stopIfTrue="1">
-      <formula>COUNTBLANK($G42)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="14" priority="30">
-      <formula>LEN(TRIM(H42))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:J45">
-    <cfRule type="expression" priority="27" stopIfTrue="1">
-      <formula>COUNTBLANK($G45)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="28">
-      <formula>LEN(TRIM(H45))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:J46">
-    <cfRule type="expression" priority="25" stopIfTrue="1">
-      <formula>COUNTBLANK($G46)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="26">
-      <formula>LEN(TRIM(H46))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:J49">
-    <cfRule type="expression" priority="23" stopIfTrue="1">
-      <formula>COUNTBLANK($G49)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="24">
-      <formula>LEN(TRIM(H49))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:J50">
-    <cfRule type="expression" priority="21" stopIfTrue="1">
-      <formula>COUNTBLANK($G50)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="10" priority="22">
-      <formula>LEN(TRIM(H50))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:J53">
-    <cfRule type="expression" priority="19" stopIfTrue="1">
-      <formula>COUNTBLANK($G53)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="20">
-      <formula>LEN(TRIM(H53))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:J54">
-    <cfRule type="expression" priority="17" stopIfTrue="1">
-      <formula>COUNTBLANK($G54)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="18">
-      <formula>LEN(TRIM(H54))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:J57">
-    <cfRule type="expression" priority="15" stopIfTrue="1">
-      <formula>COUNTBLANK($G57)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="7" priority="16">
-      <formula>LEN(TRIM(H57))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:J58">
-    <cfRule type="expression" priority="13" stopIfTrue="1">
-      <formula>COUNTBLANK($G58)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="14">
-      <formula>LEN(TRIM(H58))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:J61">
-    <cfRule type="expression" priority="11" stopIfTrue="1">
-      <formula>COUNTBLANK($G61)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="5" priority="12">
-      <formula>LEN(TRIM(H61))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:J62">
-    <cfRule type="expression" priority="9" stopIfTrue="1">
-      <formula>COUNTBLANK($G62)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
-      <formula>LEN(TRIM(H62))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65:J65">
-    <cfRule type="expression" priority="7" stopIfTrue="1">
-      <formula>COUNTBLANK($G65)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="8">
-      <formula>LEN(TRIM(H65))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66:J66">
-    <cfRule type="expression" priority="5" stopIfTrue="1">
-      <formula>COUNTBLANK($G66)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
-      <formula>LEN(TRIM(H66))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69:J69">
-    <cfRule type="expression" priority="3" stopIfTrue="1">
-      <formula>COUNTBLANK($G69)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
-      <formula>LEN(TRIM(H69))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70:J70">
-    <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>COUNTBLANK($G70)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(H70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
